--- a/biology/Botanique/Elstar/Elstar.xlsx
+++ b/biology/Botanique/Elstar/Elstar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elstar (ou Lustre Elstar) est le nom d'un cultivar de pomme développé aux Pays-Bas dans les années 1950. Il a l'avantage d'être un des plus rapides à arriver à maturité et les fruits de l'année peuvent donc être commercialisés dès le mois d'août.
 La Elstar est une pomme ronde de taille moyenne rouge à taches jaunes.
@@ -513,7 +525,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivar obtenu en 1955 par croisement Golden Delicious × Ingrid Marie.
 Cultivar parent direct de variétés bien plus résistantes à la tavelure : Santana, Ecolette et Collina.
@@ -545,13 +559,15 @@
           <t>Susceptibilité aux maladies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tavelure : élevée[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tavelure : élevée
 Mildiou : élevée
 Rouille : élevée
-Pourriture noire (en) : élevée[2]
-Ce cultivar doit donc être régulièrement traité. S'il convient en production agricole intensive, il n'est pas approprié à un petit jardin familial où les traitements ne sont pas systématiques. Sa mise à disposition des particuliers s'est faite seulement vers 1975. Elle est disponible en bio[3].
+Pourriture noire (en) : élevée
+Ce cultivar doit donc être régulièrement traité. S'il convient en production agricole intensive, il n'est pas approprié à un petit jardin familial où les traitements ne sont pas systématiques. Sa mise à disposition des particuliers s'est faite seulement vers 1975. Elle est disponible en bio.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pommier Elstar a une forte tendance acrotonique. Par ailleurs, il produit une grosse quantité de pommes mais a le défaut d'avoir une forte alternance et une faible durée de conservation des fruits[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pommier Elstar a une forte tendance acrotonique. Par ailleurs, il produit une grosse quantité de pommes mais a le défaut d'avoir une forte alternance et une faible durée de conservation des fruits.
 Groupe de floraison : D
 Date de floraison : 3 jours après la Golden Delicious
 </t>
